--- a/z/(815-1630)/RTO_41385.xlsx
+++ b/z/(815-1630)/RTO_41385.xlsx
@@ -25,24 +25,24 @@
     <t>Categories</t>
   </si>
   <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Contact name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>Job title</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Contact name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Organisation name</t>
   </si>
   <si>
@@ -55,40 +55,40 @@
     <t>Public enquiries</t>
   </si>
   <si>
+    <t>414418239</t>
+  </si>
+  <si>
+    <t>0414 418 239</t>
+  </si>
+  <si>
+    <t>Mr  Andrew Paul  Fee</t>
+  </si>
+  <si>
+    <t>Mr.  Andrew Paul  Fee</t>
+  </si>
+  <si>
+    <t>Ms.  Michelle-Anne  Kenny</t>
+  </si>
+  <si>
+    <t>rawmanager46@gmail.com</t>
+  </si>
+  <si>
+    <t>andrew@rawcompany.net</t>
+  </si>
+  <si>
+    <t>courses@rawcompany.net</t>
+  </si>
+  <si>
+    <t>46 Evesham Street, Moorooka, QLD, 4105</t>
+  </si>
+  <si>
+    <t>1300 729 326</t>
+  </si>
+  <si>
     <t>Co-Owner/CEO</t>
   </si>
   <si>
     <t>Training and Compliance Coordinator</t>
-  </si>
-  <si>
-    <t>414418239</t>
-  </si>
-  <si>
-    <t>0414 418 239</t>
-  </si>
-  <si>
-    <t>Mr  Andrew Paul  Fee</t>
-  </si>
-  <si>
-    <t>Mr.  Andrew Paul  Fee</t>
-  </si>
-  <si>
-    <t>Ms.  Michelle-Anne  Kenny</t>
-  </si>
-  <si>
-    <t>rawmanager46@gmail.com</t>
-  </si>
-  <si>
-    <t>andrew@rawcompany.net</t>
-  </si>
-  <si>
-    <t>courses@rawcompany.net</t>
-  </si>
-  <si>
-    <t>46 Evesham Street, Moorooka, QLD, 4105</t>
-  </si>
-  <si>
-    <t>1300 729 326</t>
   </si>
   <si>
     <t>Raw Dance Company Pty Ltd</t>
@@ -3291,16 +3291,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -3311,22 +3311,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -3336,17 +3336,17 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
